--- a/Shared Documentation/Luke's Documents/ProjectScheduleOverview Versions/Clash of Cosplayers - Schedule Timeframe.xlsx
+++ b/Shared Documentation/Luke's Documents/ProjectScheduleOverview Versions/Clash of Cosplayers - Schedule Timeframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\ProjectScheduleOverview Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C21E4EA-3760-4DB0-BFC5-7AF0BD09A6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF0962-B543-45F0-9FC2-CFBFCDC5B0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
   <si>
     <t>Concept</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>may delay</t>
+  </si>
+  <si>
+    <t>Picking up Corpses</t>
+  </si>
+  <si>
+    <t>Trashcan death</t>
   </si>
 </sst>
 </file>
@@ -762,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>3</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>48</v>
       </c>
@@ -1168,8 +1174,11 @@
       <c r="H26" s="20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>48</v>
       </c>
@@ -1179,14 +1188,16 @@
       <c r="E27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>54</v>
       </c>
@@ -1200,7 +1211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>3</v>
       </c>
@@ -1210,13 +1221,16 @@
       <c r="I29" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>48</v>
       </c>
@@ -1224,7 +1238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1295,54 +1309,42 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+    <row r="42" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B42" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+      <c r="M42" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>51</v>
@@ -1364,7 +1366,10 @@
     </row>
     <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>61</v>
@@ -1372,9 +1377,28 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Shared Documentation/Luke's Documents/ProjectScheduleOverview Versions/Clash of Cosplayers - Schedule Timeframe.xlsx
+++ b/Shared Documentation/Luke's Documents/ProjectScheduleOverview Versions/Clash of Cosplayers - Schedule Timeframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\ProjectScheduleOverview Versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\ProjectScheduleOverview Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF0962-B543-45F0-9FC2-CFBFCDC5B0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B568EAF-68F5-4D16-BDDC-947D3244550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="72">
   <si>
     <t>Concept</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Trashcan death</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>Playtest 1st Core</t>
   </si>
 </sst>
 </file>
@@ -770,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,6 +1084,12 @@
       <c r="F19" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="G19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
@@ -1104,6 +1116,9 @@
       <c r="G21" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H21" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -1121,6 +1136,9 @@
       <c r="G22" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H22" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1135,19 +1153,22 @@
       <c r="G23" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H23" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>61</v>
+      <c r="G24" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1159,6 +1180,9 @@
       </c>
       <c r="G25" s="9" t="s">
         <v>51</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
